--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2169354838709678</v>
+        <v>1.362096774193548</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.432258064516129</v>
+        <v>1.530645161290322</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.430645161290323</v>
+        <v>-2.050806451612903</v>
       </c>
       <c r="F2" t="n">
-        <v>7.316129032258064</v>
+        <v>9.741935483870968</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.574193548387097</v>
+        <v>-2.245161290322581</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.437096774193547</v>
+        <v>-3.092741935483871</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09112903225806457</v>
+        <v>0.4548387096774194</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29758064516129</v>
+        <v>2.263709677419354</v>
       </c>
       <c r="E3" t="n">
-        <v>4.445161290322581</v>
+        <v>4.882258064516127</v>
       </c>
       <c r="F3" t="n">
-        <v>19.37741935483871</v>
+        <v>19.81209677419354</v>
       </c>
       <c r="G3" t="n">
-        <v>11.03548387096775</v>
+        <v>11.59838709677419</v>
       </c>
       <c r="H3" t="n">
-        <v>3.223387096774193</v>
+        <v>3.642741935483873</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02741935483870966</v>
+        <v>1.203225806451613</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.429838709677419</v>
+        <v>1.265322580645161</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.633870967741936</v>
+        <v>-1.523387096774194</v>
       </c>
       <c r="F4" t="n">
-        <v>9.137903225806451</v>
+        <v>11.20564516129032</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.034677419354838</v>
+        <v>-1.191129032258064</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.930645161290322</v>
+        <v>-2.838709677419355</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5322580645161291</v>
+        <v>0.428225806451613</v>
       </c>
       <c r="D5" t="n">
-        <v>2.053225806451612</v>
+        <v>2.819354838709677</v>
       </c>
       <c r="E5" t="n">
-        <v>4.515322580645163</v>
+        <v>4.926612903225809</v>
       </c>
       <c r="F5" t="n">
-        <v>18.28064516129032</v>
+        <v>18.78629032258064</v>
       </c>
       <c r="G5" t="n">
-        <v>12.37177419354838</v>
+        <v>13.07661290322581</v>
       </c>
       <c r="H5" t="n">
-        <v>3.791935483870968</v>
+        <v>4.187096774193548</v>
       </c>
     </row>
     <row r="6">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3725806451612903</v>
+        <v>0.1338709677419355</v>
       </c>
       <c r="D6" t="n">
-        <v>1.008870967741936</v>
+        <v>1.532258064516129</v>
       </c>
       <c r="E6" t="n">
-        <v>4.465322580645162</v>
+        <v>4.509677419354838</v>
       </c>
       <c r="F6" t="n">
-        <v>15.07661290322581</v>
+        <v>14.94838709677419</v>
       </c>
       <c r="G6" t="n">
-        <v>13.98306451612903</v>
+        <v>13.84354838709677</v>
       </c>
       <c r="H6" t="n">
-        <v>4.741935483870967</v>
+        <v>4.733064516129032</v>
       </c>
     </row>
     <row r="7">
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1387096774193548</v>
+        <v>1.700806451612903</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01451612903225817</v>
+        <v>3.114516129032256</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8588709677419355</v>
+        <v>0.8137096774193551</v>
       </c>
       <c r="F7" t="n">
-        <v>13.09032258064516</v>
+        <v>15.73467741935484</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.711290322580646</v>
+        <v>-0.5782258064516129</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.050806451612903</v>
+        <v>-1.450806451612904</v>
       </c>
     </row>
     <row r="8">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4103999999999999</v>
+        <v>1.3688</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0504</v>
+        <v>3.395999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>2.956</v>
+        <v>4.1232</v>
       </c>
       <c r="F8" t="n">
-        <v>17.716</v>
+        <v>19.8624</v>
       </c>
       <c r="G8" t="n">
-        <v>5.544</v>
+        <v>7.4296</v>
       </c>
       <c r="H8" t="n">
-        <v>0.648</v>
+        <v>1.8144</v>
       </c>
     </row>
     <row r="9">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2207999999999999</v>
+        <v>0.2792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2943999999999999</v>
+        <v>1.332800000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1.372</v>
+        <v>1.617599999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>9.385600000000002</v>
+        <v>10.112</v>
       </c>
       <c r="G9" t="n">
-        <v>7.556799999999999</v>
+        <v>7.529599999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5368</v>
+        <v>1.7832</v>
       </c>
     </row>
     <row r="10">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02720000000000003</v>
+        <v>0.7536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6368</v>
+        <v>2.4064</v>
       </c>
       <c r="E10" t="n">
-        <v>2.7168</v>
+        <v>3.3104</v>
       </c>
       <c r="F10" t="n">
-        <v>23.612</v>
+        <v>24.3456</v>
       </c>
       <c r="G10" t="n">
-        <v>16.828</v>
+        <v>18.228</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1376</v>
+        <v>2.768800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1400000000000001</v>
+        <v>1.0912</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1512000000000001</v>
+        <v>2.159200000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6728</v>
+        <v>0.7479999999999987</v>
       </c>
       <c r="F11" t="n">
-        <v>1.420799999999999</v>
+        <v>3.375999999999997</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.1168</v>
+        <v>-7.343548387096773</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.56</v>
+        <v>-1.2976</v>
       </c>
     </row>
     <row r="12">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3712000000000001</v>
+        <v>1.0616</v>
       </c>
       <c r="D12" t="n">
-        <v>1.9008</v>
+        <v>3.4856</v>
       </c>
       <c r="E12" t="n">
-        <v>4.7736</v>
+        <v>5.825600000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>22.5584</v>
+        <v>24.316</v>
       </c>
       <c r="G12" t="n">
-        <v>11.056</v>
+        <v>13.1248</v>
       </c>
       <c r="H12" t="n">
-        <v>1.9376</v>
+        <v>2.9248</v>
       </c>
     </row>
     <row r="13">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.1368</v>
+        <v>0.62</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9431999999999999</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.1528</v>
+        <v>-0.5568</v>
       </c>
       <c r="F13" t="n">
-        <v>4.9112</v>
+        <v>5.396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4491935483870961</v>
+        <v>0.7701612903225794</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2616</v>
+        <v>0.3288000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,294 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="57">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C565"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57547"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7D96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006837"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FC866"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D22B27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F6A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8864F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F59F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E75337"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082C966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCAA5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036A657"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00097940"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F47044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E9A51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC2627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00219C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003CA959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECE7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BBF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1DE71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED07E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAD60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED481"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ECF67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F397"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDF191"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB96A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D83128"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F36B42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CCD67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA9656"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F49B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B91326"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016914D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EF8B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDEA83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093D168"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7844E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CB67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF0A6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -76,11 +357,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -507,23 +843,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1.362096774193548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.530645161290322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2.050806451612903</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.741935483870968</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-2.245161290322581</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-3.092741935483871</v>
+      <c r="C2" s="2" t="n">
+        <v>1.273387096774194</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1.425806451612903</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>-2.141935483870967</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>9.629838709677419</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>-2.349193548387096</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>-3.186290322580645</v>
       </c>
     </row>
     <row r="3">
@@ -533,23 +869,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.4548387096774194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.263709677419354</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.882258064516127</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.81209677419354</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.59838709677419</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.642741935483873</v>
+      <c r="C3" s="7" t="n">
+        <v>0.4411290322580644</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>2.246774193548388</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>4.877419354838711</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>19.76451612903224</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>11.50967741935484</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>3.623387096774194</v>
       </c>
     </row>
     <row r="4">
@@ -563,23 +899,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1.203225806451613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.265322580645161</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.523387096774194</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.20564516129032</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-1.191129032258064</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-2.838709677419355</v>
+      <c r="C4" s="13" t="n">
+        <v>1.163709677419355</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>1.217741935483871</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>-1.514516129032259</v>
+      </c>
+      <c r="F4" s="16" t="n">
+        <v>11.19838709677419</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>-1.057258064516129</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>-2.852419354838711</v>
       </c>
     </row>
     <row r="5">
@@ -589,23 +925,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.428225806451613</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.819354838709677</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.926612903225809</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.78629032258064</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.07661290322581</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.187096774193548</v>
+      <c r="C5" s="19" t="n">
+        <v>0.3516129032258064</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>2.743548387096774</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>4.843548387096776</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>18.70080645161291</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>12.99032258064516</v>
+      </c>
+      <c r="H5" s="24" t="n">
+        <v>4.104032258064517</v>
       </c>
     </row>
     <row r="6">
@@ -619,23 +955,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.1338709677419355</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.532258064516129</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.509677419354838</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.94838709677419</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.84354838709677</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.733064516129032</v>
+      <c r="C6" s="4" t="n">
+        <v>0.1217741935483871</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>1.573387096774193</v>
+      </c>
+      <c r="E6" s="26" t="n">
+        <v>4.573387096774193</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <v>15.33709677419355</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>14.09677419354839</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <v>4.820967741935483</v>
       </c>
     </row>
     <row r="7">
@@ -645,23 +981,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1.700806451612903</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.114516129032256</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8137096774193551</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.73467741935484</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.5782258064516129</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-1.450806451612904</v>
+      <c r="C7" s="29" t="n">
+        <v>1.617741935483872</v>
+      </c>
+      <c r="D7" s="30" t="n">
+        <v>3.012903225806452</v>
+      </c>
+      <c r="E7" s="31" t="n">
+        <v>0.726612903225806</v>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>15.63467741935484</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <v>-0.6717741935483872</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>-1.537096774193549</v>
       </c>
     </row>
     <row r="8">
@@ -675,23 +1011,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1.3688</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.395999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.1232</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.8624</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.4296</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.8144</v>
+      <c r="C8" s="35" t="n">
+        <v>1.2608</v>
+      </c>
+      <c r="D8" s="36" t="n">
+        <v>3.2744</v>
+      </c>
+      <c r="E8" s="37" t="n">
+        <v>4.0544</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>19.7344</v>
+      </c>
+      <c r="G8" s="38" t="n">
+        <v>7.090400000000001</v>
+      </c>
+      <c r="H8" s="39" t="n">
+        <v>1.6208</v>
       </c>
     </row>
     <row r="9">
@@ -701,23 +1037,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.332800000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.617599999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.112</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.529599999999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.7832</v>
+      <c r="C9" s="40" t="n">
+        <v>0.2616</v>
+      </c>
+      <c r="D9" s="34" t="n">
+        <v>1.3392</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>1.584800000000001</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>10.1304</v>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>7.551199999999999</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>1.8024</v>
       </c>
     </row>
     <row r="10">
@@ -731,23 +1067,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.7536</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.4064</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.3104</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24.3456</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18.228</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.768800000000001</v>
+      <c r="C10" s="44" t="n">
+        <v>0.6215999999999999</v>
+      </c>
+      <c r="D10" s="45" t="n">
+        <v>2.2736</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <v>3.1832</v>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>24.18480000000001</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>18.0752</v>
+      </c>
+      <c r="H10" s="47" t="n">
+        <v>2.6336</v>
       </c>
     </row>
     <row r="11">
@@ -757,23 +1093,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1.0912</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.159200000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7479999999999987</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.375999999999997</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-7.343548387096773</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-1.2976</v>
+      <c r="C11" s="48" t="n">
+        <v>1.1024</v>
+      </c>
+      <c r="D11" s="49" t="n">
+        <v>2.1528</v>
+      </c>
+      <c r="E11" s="50" t="n">
+        <v>0.7575999999999998</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>3.392000000000003</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>-7.341935483870968</v>
+      </c>
+      <c r="H11" s="51" t="n">
+        <v>-1.2896</v>
       </c>
     </row>
     <row r="12">
@@ -787,23 +1123,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1.0616</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.4856</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.825600000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.316</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.1248</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.9248</v>
+      <c r="C12" s="52" t="n">
+        <v>0.9520000000000002</v>
+      </c>
+      <c r="D12" s="29" t="n">
+        <v>3.3688</v>
+      </c>
+      <c r="E12" s="29" t="n">
+        <v>5.7096</v>
+      </c>
+      <c r="F12" s="29" t="n">
+        <v>24.184</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>12.9888</v>
+      </c>
+      <c r="H12" s="53" t="n">
+        <v>2.812</v>
       </c>
     </row>
     <row r="13">
@@ -813,23 +1149,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7199999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.5568</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.396</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7701612903225794</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.3288000000000005</v>
+      <c r="C13" s="54" t="n">
+        <v>0.7295999999999999</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.8167999999999999</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>-0.4552</v>
+      </c>
+      <c r="F13" s="55" t="n">
+        <v>5.512000000000002</v>
+      </c>
+      <c r="G13" s="42" t="n">
+        <v>0.8693548387096776</v>
+      </c>
+      <c r="H13" s="56" t="n">
+        <v>0.432</v>
       </c>
     </row>
   </sheetData>

--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -29,293 +29,18 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00F1F1F1"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C565"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F57547"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E65036"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A50026"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006837"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FC866"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D22B27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDBF6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDE379"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F6A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE28F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8864F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F59F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E75337"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0082C966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCAA5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0036A657"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00097940"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F47044"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3F399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FBB2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E9A51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC2627"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00219C52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003CA959"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FECE7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BBF64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1DE71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FED07E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDAD60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006EC064"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FED481"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ECF67"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2F397"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDF191"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDB96A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D83128"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F36B42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CCD67"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88C51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066BD63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045AD5B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA9656"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F49B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003FAA59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B91326"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016914D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EF8B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDEA83"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093D168"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7844E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087CB67"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF0A6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -357,66 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -844,22 +516,22 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.273387096774194</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1.425806451612903</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>-2.141935483870967</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>9.629838709677419</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>-2.349193548387096</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>-3.186290322580645</v>
+        <v>-2.18</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>-5.35</v>
       </c>
     </row>
     <row r="3">
@@ -869,23 +541,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>0.4411290322580644</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>2.246774193548388</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>4.877419354838711</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>19.76451612903224</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>11.50967741935484</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>3.623387096774194</v>
+      <c r="C3" s="2" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
@@ -899,23 +571,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C4" s="13" t="n">
-        <v>1.163709677419355</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>1.217741935483871</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>-1.514516129032259</v>
-      </c>
-      <c r="F4" s="16" t="n">
-        <v>11.19838709677419</v>
-      </c>
-      <c r="G4" s="17" t="n">
-        <v>-1.057258064516129</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>-2.852419354838711</v>
+      <c r="C4" s="2" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>-4.84</v>
       </c>
     </row>
     <row r="5">
@@ -925,23 +597,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C5" s="19" t="n">
-        <v>0.3516129032258064</v>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>2.743548387096774</v>
-      </c>
-      <c r="E5" s="21" t="n">
-        <v>4.843548387096776</v>
-      </c>
-      <c r="F5" s="22" t="n">
-        <v>18.70080645161291</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>12.99032258064516</v>
-      </c>
-      <c r="H5" s="24" t="n">
-        <v>4.104032258064517</v>
+      <c r="C5" s="2" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -955,23 +627,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0.1217741935483871</v>
-      </c>
-      <c r="D6" s="25" t="n">
-        <v>1.573387096774193</v>
-      </c>
-      <c r="E6" s="26" t="n">
-        <v>4.573387096774193</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <v>15.33709677419355</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <v>14.09677419354839</v>
-      </c>
-      <c r="H6" s="29" t="n">
-        <v>4.820967741935483</v>
+      <c r="C6" s="2" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
@@ -981,23 +653,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C7" s="29" t="n">
-        <v>1.617741935483872</v>
-      </c>
-      <c r="D7" s="30" t="n">
-        <v>3.012903225806452</v>
-      </c>
-      <c r="E7" s="31" t="n">
-        <v>0.726612903225806</v>
-      </c>
-      <c r="F7" s="32" t="n">
-        <v>15.63467741935484</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>-0.6717741935483872</v>
-      </c>
-      <c r="H7" s="34" t="n">
-        <v>-1.537096774193549</v>
+      <c r="C7" s="2" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>-3.68</v>
       </c>
     </row>
     <row r="8">
@@ -1011,23 +683,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C8" s="35" t="n">
-        <v>1.2608</v>
-      </c>
-      <c r="D8" s="36" t="n">
-        <v>3.2744</v>
-      </c>
-      <c r="E8" s="37" t="n">
-        <v>4.0544</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>19.7344</v>
-      </c>
-      <c r="G8" s="38" t="n">
-        <v>7.090400000000001</v>
-      </c>
-      <c r="H8" s="39" t="n">
-        <v>1.6208</v>
+      <c r="C8" s="2" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>-1.44</v>
       </c>
     </row>
     <row r="9">
@@ -1037,23 +709,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C9" s="40" t="n">
-        <v>0.2616</v>
-      </c>
-      <c r="D9" s="34" t="n">
-        <v>1.3392</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>1.584800000000001</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>10.1304</v>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>7.551199999999999</v>
-      </c>
-      <c r="H9" s="43" t="n">
-        <v>1.8024</v>
+      <c r="C9" s="2" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="10">
@@ -1067,23 +739,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C10" s="44" t="n">
-        <v>0.6215999999999999</v>
-      </c>
-      <c r="D10" s="45" t="n">
-        <v>2.2736</v>
-      </c>
-      <c r="E10" s="46" t="n">
-        <v>3.1832</v>
-      </c>
-      <c r="F10" s="29" t="n">
-        <v>24.18480000000001</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>18.0752</v>
-      </c>
-      <c r="H10" s="47" t="n">
-        <v>2.6336</v>
+      <c r="C10" s="2" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="11">
@@ -1093,23 +765,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C11" s="48" t="n">
-        <v>1.1024</v>
-      </c>
-      <c r="D11" s="49" t="n">
-        <v>2.1528</v>
-      </c>
-      <c r="E11" s="50" t="n">
-        <v>0.7575999999999998</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3.392000000000003</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>-7.341935483870968</v>
-      </c>
-      <c r="H11" s="51" t="n">
-        <v>-1.2896</v>
+      <c r="C11" s="2" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-9.85</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>-3.94</v>
       </c>
     </row>
     <row r="12">
@@ -1123,23 +795,23 @@
           <t>30% top</t>
         </is>
       </c>
-      <c r="C12" s="52" t="n">
-        <v>0.9520000000000002</v>
-      </c>
-      <c r="D12" s="29" t="n">
-        <v>3.3688</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.7096</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>24.184</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>12.9888</v>
-      </c>
-      <c r="H12" s="53" t="n">
-        <v>2.812</v>
+      <c r="C12" s="2" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -1149,23 +821,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C13" s="54" t="n">
-        <v>0.7295999999999999</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0.8167999999999999</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>-0.4552</v>
-      </c>
-      <c r="F13" s="55" t="n">
-        <v>5.512000000000002</v>
-      </c>
-      <c r="G13" s="42" t="n">
-        <v>0.8693548387096776</v>
-      </c>
-      <c r="H13" s="56" t="n">
-        <v>0.432</v>
+      <c r="C13" s="2" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>

--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00008000"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,22 +516,22 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-2.18</v>
+        <v>1.67</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>2.42</v>
+        <v>0.67</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5.58</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-3.66</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>-5.35</v>
+        <v>0.32</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>-3.07</v>
       </c>
     </row>
     <row r="3">
@@ -542,22 +542,22 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.78</v>
+        <v>0.87</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="4">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-2.16</v>
+        <v>1.54</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.08</v>
+        <v>1.08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>3.61</v>
+        <v>0.74</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>6.39</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-2.39</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>-4.84</v>
+        <v>1.23</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-2.86</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-1.81</v>
+        <v>0.76</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>2.13</v>
+        <v>1.08</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row r="6">
@@ -628,22 +628,22 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-1.38</v>
+        <v>0.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>3.45</v>
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="7">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-2.38</v>
+        <v>1.36</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>7.38</v>
+        <v>1.62</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>10.48</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>-3.68</v>
+        <v>1.68</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="8">
@@ -684,22 +684,22 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-2.65</v>
+        <v>1.38</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>3.42</v>
+        <v>1.94</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>7.55</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-1.44</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9">
@@ -710,22 +710,22 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.95</v>
+        <v>0.82</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="10">
@@ -740,22 +740,22 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-2.09</v>
+        <v>1.19</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="11">
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-1.79</v>
+        <v>1.28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.27</v>
+        <v>1.41</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>2.06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>-9.85</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>-3.94</v>
+        <v>0.47</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>-6.19</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>-2.19</v>
       </c>
     </row>
     <row r="12">
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-2.77</v>
+        <v>1.23</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>0.15</v>
+        <v>1.58</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="13">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.77</v>
+        <v>0.88</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.52</v>
+        <v>1.04</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0.97</v>
+        <v>1.15</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>3.04</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.15</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,22 +516,22 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1.13</v>
+        <v>-0.35</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.98</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>-3.07</v>
+        <v>-0.49</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>-3.42</v>
       </c>
     </row>
     <row r="3">
@@ -542,22 +542,22 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4.22</v>
+        <v>-0.92</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="4">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>-2.86</v>
+        <v>-0.34</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>-3.07</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.76</v>
+        <v>-0.65</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>4.31</v>
+        <v>-0.21</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="6">
@@ -628,22 +628,22 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>5.18</v>
+        <v>-0.39</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="7">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>-1.51</v>
+        <v>-0.52</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="8">
@@ -684,22 +684,22 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.78</v>
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -710,22 +710,22 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>2.59</v>
+        <v>-0.2</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="10">
@@ -740,22 +740,22 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>4.7</v>
+        <v>-0.64</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>3.98</v>
       </c>
     </row>
     <row r="11">
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>2.06</v>
+        <v>-0.08</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1.51</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>-6.19</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>-2.19</v>
+        <v>-0.79</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-5.83</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>-2.42</v>
       </c>
     </row>
     <row r="12">
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2.98</v>
+        <v>-1.11</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="13">
@@ -821,23 +821,23 @@
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0.89</v>
+      <c r="C13" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/technicalFactorsExcel/sp500topDownFactors.xlsx
+++ b/technicalFactorsExcel/sp500topDownFactors.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,12 +28,6 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="00008000"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -43,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,38 +51,15 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,54 +481,54 @@
           <t>DividendYield (%)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>-3.42</v>
+      <c r="C2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>3.42</v>
+      <c r="C3" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -566,54 +537,54 @@
           <t>netDebt/EV (%)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>-3.07</v>
+      <c r="C4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-3.1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="C5" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.2</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>3.55</v>
+      <c r="G5" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -622,54 +593,54 @@
           <t>marketCap (M)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>4.73</v>
+      <c r="C6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>-1.82</v>
+      <c r="C7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="8">
@@ -678,54 +649,54 @@
           <t>volatility20r (%)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.02</v>
+      <c r="C8" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>2.67</v>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -734,54 +705,54 @@
           <t>Momentum (1m vs 4m)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>3.98</v>
+      <c r="C10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>-5.83</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>-2.42</v>
+      <c r="C11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="12">
@@ -790,65 +761,57 @@
           <t>Beta (3y)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>30% top</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1.81</v>
+      <c r="C12" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
         <is>
           <t>30% bottom</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>0.95</v>
+      <c r="C13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>